--- a/openmrs-configs/metadata.xlsx
+++ b/openmrs-configs/metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24560" windowHeight="15620" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24560" windowHeight="15620" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="concepts" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="191">
   <si>
     <t>name</t>
   </si>
@@ -601,6 +601,30 @@
   </si>
   <si>
     <t>name WBA</t>
+  </si>
+  <si>
+    <t>address hierarchy</t>
+  </si>
+  <si>
+    <t>Country (country)</t>
+  </si>
+  <si>
+    <t>District (State/Province)</t>
+  </si>
+  <si>
+    <t>Chiefdom (address2)</t>
+  </si>
+  <si>
+    <t>Village (cityVillage)</t>
+  </si>
+  <si>
+    <t>Address (address1)</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>import hierarchy from CSV</t>
   </si>
 </sst>
 </file>
@@ -2224,11 +2248,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2519,10 +2543,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F26"/>
+  <dimension ref="A2:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2664,6 +2688,47 @@
         <v>181</v>
       </c>
     </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>187</v>
+      </c>
+      <c r="B32" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>188</v>
+      </c>
+      <c r="B33" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>190</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
